--- a/Batch/template/RFQ Analysis all data.xlsx
+++ b/Batch/template/RFQ Analysis all data.xlsx
@@ -243,10 +243,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Year is based on Assigned or Created Year.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>A result of the 2475 was removed from the whole data besides the "2475 PO"</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>Condition</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Year is based on Created Year.</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -331,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -343,6 +343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,8 +875,8 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
+      <c r="A30" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,12 +891,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Batch/template/RFQ Analysis all data.xlsx
+++ b/Batch/template/RFQ Analysis all data.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="10575"/>
   </bookViews>
   <sheets>
-    <sheet name="Condition" sheetId="4" r:id="rId1"/>
+    <sheet name="Condition" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -26,298 +26,365 @@
       </rPr>
       <t>Condition</t>
     </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Pass rate (%) - Quality</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pass rate (%) - Quality</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>= QM Approved / QM Approved+ QM Rejected</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cancel rate (%) - Cancel</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= PO Cancel / Par-PO  </t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buying rate (%) - Competitiveness</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">= Par-PO/ RFQ (Price exist)   (Purchasing purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Raw material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buying rate (%)  (for Stock, for Raw Material)</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">= Par-PO/ RFQ (Price exist)   (Purchasing purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Raw material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>= QM Approved / QM Approved+ QM Rejected</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buying rate (%)  (for New)</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">= Par-PO/ RFQ (Price exist)   (Purchasing purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Cancel rate (%) - Cancel</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t xml:space="preserve">= PO Cancel / Par-PO  </t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Buying rate (%) - Competitiveness</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">= Par-PO/ RFQ  (Purchasing purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Raw material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Buying rate (%)  (for Stock, for Raw Material)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">= Par-PO/ RFQ   (Purchasing purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">and  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Raw material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Buying rate (%)  (for New)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">= Par-PO/ RFQ   (Purchasing purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Definition</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Pass rate (%) - Quality</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pass rate (%) - Quality</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>・　</t>
     </r>
@@ -330,16 +397,15 @@
       </rPr>
       <t>QM Approved: Number of QM result "A" in PDB PO</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>・　</t>
     </r>
@@ -352,7 +418,7 @@
       </rPr>
       <t>QM Rejected: Number of QM result "R" in  PDB PO</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -381,7 +447,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>・</t>
     </r>
@@ -400,7 +465,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>⇒</t>
     </r>
@@ -420,7 +484,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>・</t>
     </r>
@@ -439,7 +502,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>⇒</t>
     </r>
@@ -459,7 +521,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>・</t>
     </r>
@@ -479,7 +540,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>⇒</t>
     </r>
@@ -499,7 +559,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>⇒</t>
     </r>
@@ -538,7 +597,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -552,20 +610,28 @@
       </rPr>
       <t>&lt;If characters except "A" and "R" is used in QM result of PDB PO , it is ignored from this evaluation.&gt;</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Cancel rate (%) - Cancel</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cancel rate (%) - Cancel</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>・　</t>
     </r>
@@ -578,16 +644,15 @@
       </rPr>
       <t>PO Cancel: Number of PO cancel - Number of "2475 PO"</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>・　</t>
     </r>
@@ -600,16 +665,15 @@
       </rPr>
       <t>2475 PO: Number of PO of each maker in Supplier# 2475 ( 2475: TCI-S production. Number of order to TCI-S production). Attention: This operation is already finished at (~2015)</t>
     </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>・　</t>
     </r>
@@ -622,7 +686,20 @@
       </rPr>
       <t>Par-PO: Number of Par-PO</t>
     </r>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buying rate (%) - Competitiveness</t>
+    </r>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -640,7 +717,6 @@
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>：</t>
     </r>
@@ -653,25 +729,24 @@
       </rPr>
       <t>Number of Par-PO</t>
     </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFQ (Price exist)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>：</t>
     </r>
@@ -682,21 +757,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Number of RFQ</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When we extract "Par-PO " and "RFQ", "Purchasing purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+      <t xml:space="preserve">Number of "RFQ (Price exists)"  </t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we extract "Par-PO " and "RFQ (Price exist)", "Purchasing purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
       </rPr>
       <t>【</t>
     </r>
@@ -715,7 +789,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>】</t>
     </r>
@@ -734,7 +807,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>【</t>
     </r>
@@ -753,7 +825,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>】</t>
     </r>
@@ -772,7 +843,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>【</t>
     </r>
@@ -791,7 +861,6 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>】</t>
     </r>
@@ -850,135 +919,205 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If Purchasing purpose of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is different from Purchasing purpose of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PO purpose is adopted. (Ex. "RFQ purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, PO purpose: New"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It is regarded as "RFQ purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, PO purpose: New" )</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ: Number of RFQ (Price exists + No offer) </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*Attention</t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data collection period: Past 5 years since yesterday.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Reference date = "Par-PO Create Date" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>⇒</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If Purchasing purpose of </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is different from Purchasing purpose of </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RFQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, PO purpose is adopted. (Ex. "RFQ purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, PO purpose: New"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>If there are no POs in RFQ , "RFQ create date" is used as the reference date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">It is regarded as "RFQ purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, PO purpose: New" )</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>*Attention</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Data collection period: Past 5years since yesterday based on "RFQ create date" . (ex. August 2nd,2016: August 2nd, 2011 ~ August 1st, 2016) </t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(Current): 1 year only   (ex. August 2nd,2016: August 2nd, 2015 ~ August 1st, 2016) </t>
-    <phoneticPr fontId="0"/>
+      <t xml:space="preserve">】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ex. August 2nd,2016: August 2nd, 2011 ~ August 1st, 2016) </t>
+    </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Current): 1 year only   (ex. August 2nd,2016: August 2nd, 2015 ~ August 1st, 2016) </t>
+    </r>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -990,7 +1129,7 @@
       </rPr>
       <t>A result of the 2475 was removed from the whole data besides the "2475 PO"</t>
     </r>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -1002,14 +1141,14 @@
       </rPr>
       <t>( 2475: TCI-S production)</t>
     </r>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1090,21 +1229,46 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,6 +1290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,80 +1359,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1562,230 +1742,239 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="168.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="168.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="29"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="20"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="20"/>
+      <c r="A30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
